--- a/tradept/Excel/Localization/Main/english/J剧情_StoryEvents_MapEvents_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/J剧情_StoryEvents_MapEvents_hotfix.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF91632F-2D9C-46F4-BC42-A603E8A5B40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="main" sheetId="2" r:id="rId1"/>
+    <sheet name="main" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -40,8 +34,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -49,8 +49,127 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="60"/>
       <name val="宋体"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -58,13 +177,8 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -73,22 +187,202 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF08080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEA04"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF08080" tint="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEA04" tint="0"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -113,70 +407,503 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="57">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="2" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="5" applyFill="1" borderId="0" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="7" applyFill="1" borderId="3" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="22" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="23" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="24" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="25" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="11" applyFill="1" borderId="6" applyBorder="1" xfId="27" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="11" applyFill="1" borderId="2" applyBorder="1" xfId="28" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="12" applyFill="1" borderId="7" applyBorder="1" xfId="29" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="30" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="31" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="32" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" xfId="33" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="34" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="35" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="36" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="37" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="38" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="39" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="40" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="41" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="42" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="43" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="44" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="45" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="46" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="47" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="49" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="50" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="51" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="52" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="33" applyFill="1" borderId="1" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="33" applyFill="1" borderId="1" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="34" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="普通" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="普通 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="普通 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="普通 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+  <cellStyles count="53">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="普通" xfId="11"/>
+    <cellStyle name="百分比" xfId="12" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
+    <cellStyle name="普通 2" xfId="14"/>
+    <cellStyle name="注释" xfId="15" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
+    <cellStyle name="标题" xfId="19" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
+    <cellStyle name="普通 4" xfId="21"/>
+    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
+    <cellStyle name="输出" xfId="27" builtinId="21"/>
+    <cellStyle name="计算" xfId="28" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
+    <cellStyle name="汇总" xfId="33" builtinId="25"/>
+    <cellStyle name="好" xfId="34" builtinId="26"/>
+    <cellStyle name="适中" xfId="35" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
+    <cellStyle name="普通 3" xfId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -505,45 +1232,35 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="93.75">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="56" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>